--- a/TN5250/artifact/script/TN5250.xlsx
+++ b/TN5250/artifact/script/TN5250.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="885">
   <si>
     <t>target</t>
   </si>
@@ -6744,7 +6744,7 @@
   <sheetPr/>
   <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
@@ -10398,9 +10398,9 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -14035,12 +14035,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O223"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -14762,21 +14762,17 @@
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>823</v>
-      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="F28" s="26" t="s">
         <v>777</v>
       </c>
+      <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -14789,18 +14785,20 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>363</v>
+        <v>556</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="s">
+        <v>777</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -14813,16 +14811,16 @@
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>672</v>
+        <v>363</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -14837,15 +14835,17 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="E31" s="38"/>
+        <v>672</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -14859,17 +14859,15 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>830</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -14881,11 +14879,9 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>832</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19" t="s">
+        <v>829</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>29</v>
@@ -14894,21 +14890,24 @@
         <v>500</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="36"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="2:15">
+    <row r="34" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>771</v>
+        <v>832</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>29</v>
@@ -14917,7 +14916,7 @@
         <v>500</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -14931,16 +14930,16 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="2:15">
       <c r="B35" s="3" t="s">
-        <v>834</v>
+        <v>771</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -14954,16 +14953,16 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="2:15">
       <c r="B36" s="3" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>830</v>
+        <v>777</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -14977,15 +14976,17 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="2:15">
       <c r="B37" s="3" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E37" s="38"/>
+        <v>500</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>830</v>
+      </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
@@ -14998,17 +14999,15 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="2:15">
       <c r="B38" s="3" t="s">
-        <v>835</v>
+        <v>776</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E38" s="38"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
@@ -15021,7 +15020,7 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="2:15">
       <c r="B39" s="3" t="s">
-        <v>771</v>
+        <v>835</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>29</v>
@@ -15029,8 +15028,8 @@
       <c r="D39" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>772</v>
+      <c r="E39" s="5">
+        <v>3</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -15044,7 +15043,7 @@
     </row>
     <row r="40" ht="23" customHeight="1" spans="2:15">
       <c r="B40" s="3" t="s">
-        <v>836</v>
+        <v>771</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
@@ -15053,7 +15052,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -15067,7 +15066,7 @@
     </row>
     <row r="41" ht="23" customHeight="1" spans="2:15">
       <c r="B41" s="3" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>29</v>
@@ -15076,7 +15075,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -15090,7 +15089,7 @@
     </row>
     <row r="42" ht="23" customHeight="1" spans="2:15">
       <c r="B42" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>29</v>
@@ -15099,7 +15098,7 @@
         <v>500</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -15111,12 +15110,9 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="18" t="s">
-        <v>837</v>
-      </c>
+    <row r="43" ht="23" customHeight="1" spans="2:15">
       <c r="B43" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>29</v>
@@ -15124,8 +15120,8 @@
       <c r="D43" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>839</v>
+      <c r="E43" s="5" t="s">
+        <v>830</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -15138,9 +15134,11 @@
       <c r="O43" s="21"/>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:15">
-      <c r="A44" s="18"/>
+      <c r="A44" s="18" t="s">
+        <v>837</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>771</v>
+        <v>838</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>29</v>
@@ -15148,22 +15146,23 @@
       <c r="D44" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>772</v>
+      <c r="E44" s="26" t="s">
+        <v>839</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
-      <c r="L44" s="20"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
-        <v>840</v>
+        <v>771</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
@@ -15172,22 +15171,21 @@
         <v>500</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="21"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="20"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="L45" s="20"/>
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>29</v>
@@ -15196,7 +15194,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -15211,7 +15209,7 @@
     <row r="47" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>29</v>
@@ -15220,7 +15218,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -15233,11 +15231,9 @@
       <c r="O47" s="21"/>
     </row>
     <row r="48" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="18" t="s">
-        <v>841</v>
-      </c>
+      <c r="A48" s="18"/>
       <c r="B48" s="3" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
@@ -15246,7 +15242,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -15259,9 +15255,11 @@
       <c r="O48" s="21"/>
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="18"/>
+      <c r="A49" s="18" t="s">
+        <v>841</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>771</v>
+        <v>842</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>29</v>
@@ -15270,7 +15268,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>772</v>
+        <v>843</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -15284,16 +15282,18 @@
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="18"/>
-      <c r="B50" s="19" t="s">
-        <v>776</v>
+      <c r="B50" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>772</v>
+      </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -15306,24 +15306,21 @@
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="18"/>
-      <c r="B51" s="28" t="s">
-        <v>844</v>
+      <c r="B51" s="19" t="s">
+        <v>776</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>793</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="21"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
       <c r="N51" s="22"/>
@@ -15331,8 +15328,8 @@
     </row>
     <row r="52" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="18"/>
-      <c r="B52" s="3" t="s">
-        <v>771</v>
+      <c r="B52" s="28" t="s">
+        <v>844</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>29</v>
@@ -15341,7 +15338,7 @@
         <v>500</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -15357,7 +15354,7 @@
     <row r="53" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>29</v>
@@ -15366,7 +15363,7 @@
         <v>500</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -15407,7 +15404,7 @@
     <row r="55" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>29</v>
@@ -15416,7 +15413,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -15432,7 +15429,7 @@
     <row r="56" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
-        <v>771</v>
+        <v>845</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>29</v>
@@ -15441,7 +15438,7 @@
         <v>500</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>772</v>
+        <v>846</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -15456,10 +15453,18 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="B57" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>772</v>
+      </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -18279,6 +18284,9 @@
     <row r="223" ht="23" customHeight="1" spans="1:15">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
       <c r="F223" s="26"/>
       <c r="G223" s="26"/>
       <c r="H223" s="26"/>
@@ -18290,6 +18298,20 @@
       <c r="N223" s="22"/>
       <c r="O223" s="21"/>
     </row>
+    <row r="224" ht="23" customHeight="1" spans="1:15">
+      <c r="A224" s="18"/>
+      <c r="B224" s="19"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="26"/>
+      <c r="I224" s="26"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="21"/>
+      <c r="L224" s="22"/>
+      <c r="M224" s="20"/>
+      <c r="N224" s="22"/>
+      <c r="O224" s="21"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -18298,18 +18320,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N124:N223">
+  <conditionalFormatting sqref="N125:N224">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N123">
+  <conditionalFormatting sqref="N1 N3:N124">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -18321,18 +18343,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 B47 C47 C48 C49 C50 C51 C52 B53 C53 B54 C54 C55 C56 C7:C8 C57:C222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 B48 C48 C49 C50 C51 C52 C53 B54 C54 B55 C55 C56 C57 C7:C8 C58:C223">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57:D222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58:D223">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E55" numberStoredAsText="1"/>
-    <ignoredError sqref="B53 B47" listDataValidation="1"/>
+    <ignoredError sqref="E56" numberStoredAsText="1"/>
+    <ignoredError sqref="B54 B48" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18342,10 +18364,10 @@
   <sheetPr/>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/TN5250/artifact/script/TN5250.xlsx
+++ b/TN5250/artifact/script/TN5250.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2556,7 +2556,7 @@
     <t>Back to parent frame</t>
   </si>
   <si>
-    <t>relative=top</t>
+    <t>index=0</t>
   </si>
   <si>
     <t>Wait for searchbox element</t>
@@ -14037,10 +14037,10 @@
   <sheetPr/>
   <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -14385,7 +14385,6 @@
       <c r="D13" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E13" s="5"/>
       <c r="F13" s="49"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -15315,7 +15314,6 @@
       <c r="D51" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E51" s="5"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -18354,7 +18352,7 @@
   <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="E56" numberStoredAsText="1"/>
-    <ignoredError sqref="B54 B48" listDataValidation="1"/>
+    <ignoredError sqref="B48 B54" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18364,8 +18362,8 @@
   <sheetPr/>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
@@ -22263,8 +22261,6 @@
       <c r="D5" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -22288,7 +22284,6 @@
       <c r="E6" s="38">
         <v>6</v>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>

--- a/TN5250/artifact/script/TN5250.xlsx
+++ b/TN5250/artifact/script/TN5250.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -12,8 +12,7 @@
     <sheet name="connectAndLogin" sheetId="6" r:id="rId3"/>
     <sheet name="CRUD" sheetId="8" r:id="rId4"/>
     <sheet name="NavigateMenuScreens" sheetId="11" r:id="rId5"/>
-    <sheet name="saveDataAsCsv" sheetId="12" r:id="rId6"/>
-    <sheet name="teardown" sheetId="7" r:id="rId7"/>
+    <sheet name="teardown" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="871">
   <si>
     <t>target</t>
   </si>
@@ -2397,6 +2396,9 @@
   </si>
   <si>
     <t>Inpecting the Refreshed screen</t>
+  </si>
+  <si>
+    <t>Wait for 5sec</t>
   </si>
   <si>
     <t>${wait}</t>
@@ -2490,25 +2492,28 @@
     <t>${getListOfStudents}</t>
   </si>
   <si>
+    <t>Get screen text</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Go back to previous screen</t>
+  </si>
+  <si>
+    <t>{F3}</t>
+  </si>
+  <si>
     <t>switchToBrowser</t>
   </si>
   <si>
-    <t>Get screen text</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>Get 'JNTU' text from the table</t>
   </si>
   <si>
     <t>${table}</t>
   </si>
   <si>
-    <t>Harika</t>
-  </si>
-  <si>
-    <t>ht</t>
+    <t>JNTU</t>
   </si>
   <si>
     <t>college</t>
@@ -2517,7 +2522,7 @@
     <t>Trim the spaces from start and end of the string</t>
   </si>
   <si>
-    <t>collegeName</t>
+    <t>extractedcollegeUrl</t>
   </si>
   <si>
     <t>[TEXT(${college}) =&gt; trim]</t>
@@ -2526,171 +2531,153 @@
     <t>Open url</t>
   </si>
   <si>
-    <t>${google}</t>
-  </si>
-  <si>
-    <t>Execute 4 steps</t>
-  </si>
-  <si>
-    <t>Save count of frames</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>${frame}</t>
-  </si>
-  <si>
-    <t>select frame if count is not 0</t>
-  </si>
-  <si>
-    <t>SkipIf(${count} = 0 )</t>
-  </si>
-  <si>
-    <t>click on stay sign out button</t>
-  </si>
-  <si>
-    <t>${staySignOut}</t>
-  </si>
-  <si>
-    <t>Back to parent frame</t>
-  </si>
-  <si>
-    <t>index=0</t>
-  </si>
-  <si>
-    <t>Wait for searchbox element</t>
-  </si>
-  <si>
-    <t>${searchBox}</t>
-  </si>
-  <si>
-    <t>Enter into search box the extracted data from tn5250</t>
+    <t>${extractedcollegeUrl}</t>
+  </si>
+  <si>
+    <t>Get current page url</t>
+  </si>
+  <si>
+    <t>currentUrl</t>
+  </si>
+  <si>
+    <t>close the browser</t>
+  </si>
+  <si>
+    <t>Resume session</t>
+  </si>
+  <si>
+    <t>addStudent</t>
+  </si>
+  <si>
+    <t>Add new student</t>
+  </si>
+  <si>
+    <t>${addStudent}</t>
+  </si>
+  <si>
+    <t>Get list of students</t>
+  </si>
+  <si>
+    <t>updateStudentRecord</t>
+  </si>
+  <si>
+    <t>Update the new student record</t>
+  </si>
+  <si>
+    <t>${updateStudent}</t>
+  </si>
+  <si>
+    <t>Get the list of students</t>
+  </si>
+  <si>
+    <t>deleteRecord</t>
+  </si>
+  <si>
+    <t>Delete the record where SID=4</t>
+  </si>
+  <si>
+    <t>${deleteStudent}</t>
+  </si>
+  <si>
+    <t>Get list of students after deleting the record</t>
+  </si>
+  <si>
+    <t>Exit session</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Navigate to menu screen</t>
+  </si>
+  <si>
+    <t>navigateMenuScreen</t>
+  </si>
+  <si>
+    <t>Enter 9</t>
+  </si>
+  <si>
+    <t>Clicking on ENTER</t>
+  </si>
+  <si>
+    <t>Enter Student in menu input field</t>
+  </si>
+  <si>
+    <t>${menu}</t>
+  </si>
+  <si>
+    <t>Enter 1</t>
+  </si>
+  <si>
+    <t>saveDataAsCsv</t>
+  </si>
+  <si>
+    <t>Save screen text</t>
+  </si>
+  <si>
+    <t>listofstudents</t>
+  </si>
+  <si>
+    <t>String start</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>${stringStart}</t>
+  </si>
+  <si>
+    <t>String end</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>${stringEnd}</t>
+  </si>
+  <si>
+    <t>Removeing header from the text</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>[TEXT(${listofstudents}) =&gt; between(${start},00000) removeLines(BLANK:true) trim replace(  ,\,) save($(syspath|out|fullpath)/op.csv)]</t>
+  </si>
+  <si>
+    <t>Saving table as csv file</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>[TEXT(${listofstudents}) =&gt; between(${start},${end}) removeLines(CONTAIN:STUDENT)  removeLines(BLANK:true) csv(14,20,36,47) removeColumns(0) save($(syspath|out|fullpath)/op.csv,true)]</t>
+  </si>
+  <si>
+    <t>Enter 2</t>
+  </si>
+  <si>
+    <t>Enter 5 in student id input field</t>
+  </si>
+  <si>
+    <t>${studentId}</t>
+  </si>
+  <si>
+    <t>Enter Tab</t>
+  </si>
+  <si>
+    <t>Enter sarath in student name input field</t>
+  </si>
+  <si>
+    <t>${studentName}</t>
+  </si>
+  <si>
+    <t>Enter JNTU in college name input field</t>
   </si>
   <si>
     <t>${collegeName}</t>
   </si>
   <si>
-    <t>Click on fist website of JNTU</t>
-  </si>
-  <si>
-    <t>${JNTU}</t>
-  </si>
-  <si>
-    <t>Wait for website to be present</t>
-  </si>
-  <si>
-    <t>${firstWebsiteFromSuggestion}</t>
-  </si>
-  <si>
-    <t>click on JNTU website</t>
-  </si>
-  <si>
-    <t>Get current page url</t>
-  </si>
-  <si>
-    <t>currentUrl</t>
-  </si>
-  <si>
-    <t>close the browser</t>
-  </si>
-  <si>
-    <t>Go back to previous screen</t>
-  </si>
-  <si>
-    <t>{F3}</t>
-  </si>
-  <si>
-    <t>addStudent</t>
-  </si>
-  <si>
-    <t>Add new student</t>
-  </si>
-  <si>
-    <t>${addStudent}</t>
-  </si>
-  <si>
-    <t>Wait for 5sec</t>
-  </si>
-  <si>
-    <t>Resume session</t>
-  </si>
-  <si>
-    <t>Get list of students</t>
-  </si>
-  <si>
-    <t>updateStudentRecord</t>
-  </si>
-  <si>
-    <t>Update the new student record</t>
-  </si>
-  <si>
-    <t>${updateStudent}</t>
-  </si>
-  <si>
-    <t>Get the list of students</t>
-  </si>
-  <si>
-    <t>deleteRecord</t>
-  </si>
-  <si>
-    <t>Delete the record where SID=4</t>
-  </si>
-  <si>
-    <t>${deleteStudent}</t>
-  </si>
-  <si>
-    <t>Get list of students after deleting the record</t>
-  </si>
-  <si>
-    <t>Exit session</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Navigate to menu screen</t>
-  </si>
-  <si>
-    <t>navigateMenuScreen</t>
-  </si>
-  <si>
-    <t>Enter 9</t>
-  </si>
-  <si>
-    <t>Clicking on ENTER</t>
-  </si>
-  <si>
-    <t>Enter Student in menu input field</t>
-  </si>
-  <si>
-    <t>${menu}</t>
-  </si>
-  <si>
-    <t>Enter 1</t>
-  </si>
-  <si>
-    <t>Enter 2</t>
-  </si>
-  <si>
-    <t>Enter 5 in student id input field</t>
-  </si>
-  <si>
-    <t>${studentId}</t>
-  </si>
-  <si>
-    <t>Enter Tab</t>
-  </si>
-  <si>
-    <t>Enter sarath in student name input field</t>
-  </si>
-  <si>
-    <t>${studentName}</t>
-  </si>
-  <si>
-    <t>Enter JNTU in college name input field</t>
-  </si>
-  <si>
     <t>Enter JNTU website in college url input field</t>
   </si>
   <si>
@@ -2713,61 +2700,6 @@
   </si>
   <si>
     <t>Enter 4</t>
-  </si>
-  <si>
-    <t>Navigate to the display sphere of control status screen and export the table data to a CSV file.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Save Data in CSV</t>
-    </r>
-  </si>
-  <si>
-    <t>Entering the command 6 "Communication"</t>
-  </si>
-  <si>
-    <t>Clicking on enter</t>
-  </si>
-  <si>
-    <t>Entering the command 5 "Network Management"</t>
-  </si>
-  <si>
-    <t>Entering the command 3 "Display sphere of control status"</t>
-  </si>
-  <si>
-    <t>Save data as csv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tn.5250</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>saveTableAsCSV(csv,maxPage)</t>
-    </r>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/Data.csv</t>
   </si>
   <si>
     <t>Stop Recording</t>
@@ -2798,7 +2730,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2876,6 +2808,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3383,14 +3323,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3399,119 +3336,122 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3644,36 +3584,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3685,13 +3597,36 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -10398,7 +10333,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -10596,7 +10531,7 @@
       <c r="D7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <v>2</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -10788,9 +10723,9 @@
     <row r="15" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
@@ -10806,9 +10741,9 @@
     <row r="16" ht="29" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -10822,9 +10757,9 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -10839,9 +10774,9 @@
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="19"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -10941,7 +10876,7 @@
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="51"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -14035,12 +13970,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -14058,7 +13993,7 @@
     <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="19" style="8" customWidth="1"/>
     <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="16" max="16380" width="10.8333333333333" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:15">
@@ -14201,7 +14136,9 @@
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>777</v>
+      </c>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -14209,7 +14146,7 @@
         <v>541</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -14224,7 +14161,7 @@
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>29</v>
@@ -14233,7 +14170,7 @@
         <v>385</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -14250,7 +14187,7 @@
     <row r="8" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>29</v>
@@ -14274,19 +14211,19 @@
     <row r="9" ht="26" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -14300,7 +14237,7 @@
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>5</v>
@@ -14309,10 +14246,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -14327,7 +14264,7 @@
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>29</v>
@@ -14336,7 +14273,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="26"/>
@@ -14385,7 +14322,7 @@
       <c r="D13" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -14397,22 +14334,20 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="18" t="s">
-        <v>791</v>
-      </c>
+      <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="F14" s="26"/>
+        <v>778</v>
+      </c>
+      <c r="F14" s="45"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -14424,9 +14359,11 @@
       <c r="O14" s="21"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="18" t="s">
+        <v>792</v>
+      </c>
       <c r="B15" s="19" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>29</v>
@@ -14435,7 +14372,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -14449,20 +14386,18 @@
       <c r="O15" s="21"/>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="18" t="s">
-        <v>794</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>795</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>771</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -14478,26 +14413,20 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>800</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>801</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="36"/>
       <c r="K17" s="21"/>
@@ -14506,24 +14435,22 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="33" customHeight="1" spans="1:15">
+    <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
-        <v>802</v>
+      <c r="B18" s="3" t="s">
+        <v>795</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>804</v>
-      </c>
-      <c r="G18" s="36"/>
+        <v>796</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="36"/>
@@ -14536,22 +14463,23 @@
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="F19" s="36"/>
+        <v>541</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="36"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
       <c r="N19" s="22"/>
@@ -14560,353 +14488,346 @@
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="E20" s="50">
-        <v>4</v>
-      </c>
-      <c r="F20" s="36"/>
+        <v>500</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="36"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="18"/>
+      <c r="A21" s="18" t="s">
+        <v>799</v>
+      </c>
       <c r="B21" s="19" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>809</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>810</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+        <v>532</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="G21" s="47">
+        <v>2</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>803</v>
+      </c>
       <c r="I21" s="26"/>
       <c r="J21" s="36"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row r="22" ht="33" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>810</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="G22" s="36"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="36" t="s">
-        <v>812</v>
-      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
+    <row r="23" ht="33" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="26"/>
+        <v>629</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="36" t="s">
-        <v>812</v>
-      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="18"/>
+    <row r="24" ht="23" customHeight="1" spans="2:15">
       <c r="B24" s="19" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="F24" s="50"/>
+        <v>810</v>
+      </c>
+      <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="36" t="s">
-        <v>812</v>
-      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="18"/>
+    <row r="25" ht="23" customHeight="1" spans="2:15">
       <c r="B25" s="19" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="F25" s="50"/>
+        <v>589</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="29" customHeight="1" spans="1:15">
-      <c r="A26" s="18"/>
+    <row r="26" ht="23" customHeight="1" spans="2:15">
       <c r="B26" s="19" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>709</v>
+        <v>500</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>820</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
-        <v>821</v>
+    <row r="27" ht="23" customHeight="1" spans="2:15">
+      <c r="B27" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>822</v>
+        <v>500</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="C28" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>716</v>
+        <v>500</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="F28" s="26"/>
+        <v>772</v>
+      </c>
+      <c r="F28" s="45"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19" t="s">
-        <v>823</v>
+      <c r="A29" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>777</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
-        <v>825</v>
+    <row r="30" ht="23" customHeight="1" spans="2:15">
+      <c r="B30" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>363</v>
+        <v>500</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>824</v>
+        <v>772</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
-        <v>826</v>
+    <row r="31" ht="23" customHeight="1" spans="2:15">
+      <c r="B31" s="3" t="s">
+        <v>777</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>672</v>
+        <v>541</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>827</v>
+        <v>778</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
-        <v>828</v>
+    <row r="32" ht="23" customHeight="1" spans="2:15">
+      <c r="B32" s="3" t="s">
+        <v>797</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="E32" s="38"/>
+        <v>500</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>798</v>
+      </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19" t="s">
-        <v>829</v>
+    <row r="33" ht="23" customHeight="1" spans="2:15">
+      <c r="B33" s="3" t="s">
+        <v>776</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>830</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E33" s="48"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="2" t="s">
-        <v>831</v>
-      </c>
+    <row r="34" ht="23" customHeight="1" spans="2:15">
       <c r="B34" s="3" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>29</v>
@@ -14914,8 +14835,8 @@
       <c r="D34" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>833</v>
+      <c r="E34" s="5">
+        <v>3</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -14952,16 +14873,16 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="2:15">
       <c r="B36" s="3" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -14975,7 +14896,7 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="2:15">
       <c r="B37" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
@@ -14984,7 +14905,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -14998,15 +14919,17 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="2:15">
       <c r="B38" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E38" s="38"/>
+        <v>541</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>778</v>
+      </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
@@ -15019,7 +14942,7 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="2:15">
       <c r="B39" s="3" t="s">
-        <v>835</v>
+        <v>797</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>29</v>
@@ -15027,8 +14950,8 @@
       <c r="D39" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E39" s="5">
-        <v>3</v>
+      <c r="E39" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -15040,9 +14963,12 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="2:15">
+    <row r="40" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="18" t="s">
+        <v>817</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>771</v>
+        <v>818</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
@@ -15050,8 +14976,8 @@
       <c r="D40" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>772</v>
+      <c r="E40" s="26" t="s">
+        <v>819</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -15063,9 +14989,10 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="2:15">
+    <row r="41" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="18"/>
       <c r="B41" s="3" t="s">
-        <v>836</v>
+        <v>771</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>29</v>
@@ -15074,44 +15001,44 @@
         <v>500</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="21"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="20"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="L41" s="20"/>
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="2:15">
+    <row r="42" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="18"/>
       <c r="B42" s="3" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="20"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="L42" s="20"/>
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="2:15">
+    <row r="43" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>29</v>
@@ -15120,7 +15047,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -15133,11 +15060,9 @@
       <c r="O43" s="21"/>
     </row>
     <row r="44" ht="23" customHeight="1" spans="1:15">
-      <c r="A44" s="18" t="s">
-        <v>837</v>
-      </c>
+      <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
-        <v>838</v>
+        <v>771</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>29</v>
@@ -15145,8 +15070,8 @@
       <c r="D44" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>839</v>
+      <c r="E44" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -15161,7 +15086,7 @@
     <row r="45" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
@@ -15170,30 +15095,31 @@
         <v>500</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="L45" s="20"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
-        <v>840</v>
+        <v>777</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -15206,9 +15132,11 @@
       <c r="O46" s="21"/>
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:15">
-      <c r="A47" s="18"/>
+      <c r="A47" s="18" t="s">
+        <v>821</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>771</v>
+        <v>822</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>29</v>
@@ -15217,7 +15145,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -15232,7 +15160,7 @@
     <row r="48" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="3" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
@@ -15241,7 +15169,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -15254,20 +15182,15 @@
       <c r="O48" s="21"/>
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>842</v>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19" t="s">
+        <v>776</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>843</v>
+        <v>437</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -15281,8 +15204,8 @@
     </row>
     <row r="50" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="18"/>
-      <c r="B50" s="3" t="s">
-        <v>771</v>
+      <c r="B50" s="28" t="s">
+        <v>824</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>29</v>
@@ -15291,13 +15214,14 @@
         <v>500</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="21"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
       <c r="N50" s="22"/>
@@ -15305,20 +15229,24 @@
     </row>
     <row r="51" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="18"/>
-      <c r="B51" s="19" t="s">
-        <v>776</v>
+      <c r="B51" s="3" t="s">
+        <v>771</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>437</v>
+        <v>500</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="21"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
       <c r="N51" s="22"/>
@@ -15326,17 +15254,17 @@
     </row>
     <row r="52" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="18"/>
-      <c r="B52" s="28" t="s">
-        <v>844</v>
+      <c r="B52" s="3" t="s">
+        <v>777</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -15352,7 +15280,7 @@
     <row r="53" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="3" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>29</v>
@@ -15361,7 +15289,7 @@
         <v>500</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -15377,7 +15305,7 @@
     <row r="54" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="3" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>29</v>
@@ -15386,7 +15314,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -15402,7 +15330,7 @@
     <row r="55" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>29</v>
@@ -15411,7 +15339,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -15427,7 +15355,7 @@
     <row r="56" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
-        <v>845</v>
+        <v>771</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>29</v>
@@ -15436,7 +15364,7 @@
         <v>500</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>846</v>
+        <v>772</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -15451,18 +15379,10 @@
     </row>
     <row r="57" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="18"/>
-      <c r="B57" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>772</v>
-      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -18282,9 +18202,6 @@
     <row r="223" ht="23" customHeight="1" spans="1:15">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
       <c r="F223" s="26"/>
       <c r="G223" s="26"/>
       <c r="H223" s="26"/>
@@ -18296,20 +18213,6 @@
       <c r="N223" s="22"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" ht="23" customHeight="1" spans="1:15">
-      <c r="A224" s="18"/>
-      <c r="B224" s="19"/>
-      <c r="F224" s="26"/>
-      <c r="G224" s="26"/>
-      <c r="H224" s="26"/>
-      <c r="I224" s="26"/>
-      <c r="J224" s="36"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="22"/>
-      <c r="M224" s="20"/>
-      <c r="N224" s="22"/>
-      <c r="O224" s="21"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -18318,18 +18221,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N125:N224">
+  <conditionalFormatting sqref="N124:N223">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N124">
+  <conditionalFormatting sqref="N1 N3:N123">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -18341,18 +18244,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 B48 C48 C49 C50 C51 C52 C53 B54 C54 B55 C55 C56 C57 C7:C8 C58:C223">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 B45 C45 C46 C47 C48 C49 C50 C51 C52 B53 C53 B54 C54 C55 C56 C7:C8 C57:C222">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58:D223">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57:D222">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E56" numberStoredAsText="1"/>
-    <ignoredError sqref="B48 B54" listDataValidation="1"/>
+    <ignoredError sqref="E55" numberStoredAsText="1"/>
+    <ignoredError sqref="B53:B54 B45" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18360,12 +18263,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O206"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -18419,7 +18322,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -18502,7 +18405,7 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="37" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>776</v>
@@ -18524,19 +18427,19 @@
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="37"/>
-      <c r="B6" s="39" t="s">
-        <v>849</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="38" t="s">
+        <v>829</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="40">
         <v>9</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -18548,19 +18451,19 @@
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="37"/>
-      <c r="B7" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="41" t="s">
         <v>772</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -18572,7 +18475,7 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>776</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -18581,8 +18484,8 @@
       <c r="D8" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -18596,7 +18499,7 @@
     <row r="9" ht="34" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>29</v>
@@ -18605,7 +18508,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -18620,16 +18523,16 @@
     </row>
     <row r="10" ht="34" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
-      <c r="B10" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="41" t="s">
         <v>772</v>
       </c>
       <c r="F10" s="26"/>
@@ -18645,7 +18548,7 @@
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>776</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -18669,15 +18572,15 @@
     <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="C12" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="40">
         <v>1</v>
       </c>
       <c r="F12" s="26"/>
@@ -18693,16 +18596,16 @@
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="41" t="s">
         <v>772</v>
       </c>
       <c r="F13" s="26"/>
@@ -18718,7 +18621,7 @@
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>776</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -18742,20 +18645,22 @@
       <c r="O14" s="21"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
-        <v>829</v>
+      <c r="A15" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>835</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="F15" s="36"/>
+        <v>475</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -18767,20 +18672,22 @@
       <c r="O15" s="21"/>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>776</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="42" t="s">
+        <v>837</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+        <v>471</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>839</v>
+      </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -18791,21 +18698,23 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="35" customHeight="1" spans="1:15">
+    <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
-        <v>854</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>29</v>
+      <c r="B17" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E17" s="47">
-        <v>2</v>
-      </c>
-      <c r="F17" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>842</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -18818,19 +18727,21 @@
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
-      <c r="B18" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>29</v>
+      <c r="B18" s="42" t="s">
+        <v>843</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="F18" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>845</v>
+      </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -18843,19 +18754,21 @@
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>855</v>
+      <c r="B19" s="42" t="s">
+        <v>846</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="F19" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>848</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -18869,7 +18782,7 @@
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>857</v>
+        <v>797</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>29</v>
@@ -18877,10 +18790,10 @@
       <c r="D20" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="F20" s="26"/>
+      <c r="E20" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -18892,20 +18805,20 @@
       <c r="O20" s="21"/>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
-        <v>858</v>
+      <c r="A21" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>776</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="F21" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -18916,19 +18829,19 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row r="22" ht="35" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="C22" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>768</v>
+      <c r="E22" s="40">
+        <v>2</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -18943,17 +18856,17 @@
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
-        <v>860</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>820</v>
+      <c r="E23" s="41" t="s">
+        <v>772</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -18969,7 +18882,7 @@
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>29</v>
@@ -18977,8 +18890,8 @@
       <c r="D24" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>768</v>
+      <c r="E24" s="41" t="s">
+        <v>851</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -18993,8 +18906,8 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
-      <c r="B25" s="28" t="s">
-        <v>861</v>
+      <c r="B25" s="19" t="s">
+        <v>852</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>29</v>
@@ -19003,7 +18916,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>862</v>
+        <v>768</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -19019,7 +18932,7 @@
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>29</v>
@@ -19028,7 +18941,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>772</v>
+        <v>854</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -19036,9 +18949,7 @@
       <c r="I26" s="26"/>
       <c r="J26" s="36"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="22" t="s">
-        <v>758</v>
-      </c>
+      <c r="L26" s="22"/>
       <c r="M26" s="20"/>
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
@@ -19046,7 +18957,7 @@
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>29</v>
@@ -19054,8 +18965,8 @@
       <c r="D27" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>830</v>
+      <c r="E27" s="26" t="s">
+        <v>768</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -19069,19 +18980,19 @@
       <c r="O27" s="21"/>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>776</v>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>855</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E28" s="48"/>
+        <v>500</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>856</v>
+      </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
@@ -19096,16 +19007,16 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="C29" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E29" s="47">
-        <v>3</v>
+      <c r="E29" s="26" t="s">
+        <v>768</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -19120,17 +19031,17 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
-      <c r="B30" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C30" s="46" t="s">
+      <c r="B30" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>772</v>
+      <c r="E30" s="26" t="s">
+        <v>858</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -19146,7 +19057,7 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>29</v>
@@ -19154,8 +19065,8 @@
       <c r="D31" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E31" s="48" t="s">
-        <v>856</v>
+      <c r="E31" s="26" t="s">
+        <v>772</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -19163,7 +19074,9 @@
       <c r="I31" s="26"/>
       <c r="J31" s="36"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>758</v>
+      </c>
       <c r="M31" s="20"/>
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
@@ -19171,7 +19084,7 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>857</v>
+        <v>797</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>29</v>
@@ -19179,8 +19092,8 @@
       <c r="D32" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>768</v>
+      <c r="E32" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -19194,19 +19107,19 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19" t="s">
-        <v>865</v>
+      <c r="A33" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>776</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>866</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E33" s="41"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -19221,16 +19134,16 @@
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="C34" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>768</v>
+      <c r="E34" s="40">
+        <v>3</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -19245,17 +19158,17 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
-        <v>860</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>820</v>
+      <c r="E35" s="41" t="s">
+        <v>772</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -19271,7 +19184,7 @@
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>29</v>
@@ -19279,8 +19192,8 @@
       <c r="D36" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>768</v>
+      <c r="E36" s="41" t="s">
+        <v>851</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -19295,8 +19208,8 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="18"/>
-      <c r="B37" s="28" t="s">
-        <v>861</v>
+      <c r="B37" s="19" t="s">
+        <v>852</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
@@ -19305,7 +19218,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>862</v>
+        <v>768</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -19321,7 +19234,7 @@
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>29</v>
@@ -19330,7 +19243,7 @@
         <v>500</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -19338,9 +19251,7 @@
       <c r="I38" s="26"/>
       <c r="J38" s="36"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="22" t="s">
-        <v>758</v>
-      </c>
+      <c r="L38" s="22"/>
       <c r="M38" s="20"/>
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
@@ -19348,7 +19259,7 @@
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>29</v>
@@ -19356,8 +19267,8 @@
       <c r="D39" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>830</v>
+      <c r="E39" s="26" t="s">
+        <v>768</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -19371,19 +19282,19 @@
       <c r="O39" s="21"/>
     </row>
     <row r="40" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>776</v>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19" t="s">
+        <v>855</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E40" s="48"/>
+        <v>500</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>856</v>
+      </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -19398,16 +19309,16 @@
     <row r="41" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
-        <v>868</v>
-      </c>
-      <c r="C41" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E41" s="47">
-        <v>4</v>
+      <c r="E41" s="26" t="s">
+        <v>768</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -19422,17 +19333,17 @@
     </row>
     <row r="42" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="18"/>
-      <c r="B42" s="39" t="s">
-        <v>850</v>
-      </c>
-      <c r="C42" s="46" t="s">
+      <c r="B42" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E42" s="48" t="s">
-        <v>772</v>
+      <c r="E42" s="26" t="s">
+        <v>858</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -19448,7 +19359,7 @@
     <row r="43" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>29</v>
@@ -19456,8 +19367,8 @@
       <c r="D43" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>856</v>
+      <c r="E43" s="26" t="s">
+        <v>772</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -19465,7 +19376,9 @@
       <c r="I43" s="26"/>
       <c r="J43" s="36"/>
       <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
+      <c r="L43" s="22" t="s">
+        <v>758</v>
+      </c>
       <c r="M43" s="20"/>
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
@@ -19473,7 +19386,7 @@
     <row r="44" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19" t="s">
-        <v>850</v>
+        <v>797</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>29</v>
@@ -19481,8 +19394,8 @@
       <c r="D44" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>772</v>
+      <c r="E44" s="5" t="s">
+        <v>798</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -19490,25 +19403,25 @@
       <c r="I44" s="26"/>
       <c r="J44" s="36"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="22" t="s">
-        <v>758</v>
-      </c>
+      <c r="L44" s="22"/>
       <c r="M44" s="20"/>
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>776</v>
+      </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>830</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E45" s="41"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -19522,15 +19435,17 @@
     </row>
     <row r="46" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>830</v>
+      <c r="E46" s="40">
+        <v>4</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -19545,10 +19460,18 @@
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="B47" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>772</v>
+      </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -19562,10 +19485,18 @@
     </row>
     <row r="48" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="B48" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>851</v>
+      </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -19579,17 +19510,27 @@
     </row>
     <row r="49" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="B49" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>772</v>
+      </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
       <c r="J49" s="36"/>
       <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
+      <c r="L49" s="22" t="s">
+        <v>758</v>
+      </c>
       <c r="M49" s="20"/>
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
@@ -19597,9 +19538,15 @@
     <row r="50" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>798</v>
+      </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -19614,9 +19561,15 @@
     <row r="51" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="C51" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>798</v>
+      </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -22008,35 +21961,90 @@
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" ht="23" customHeight="1" spans="1:15">
+      <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="24"/>
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
-    </row>
-    <row r="193" spans="2:5">
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="20"/>
+      <c r="N192" s="22"/>
+      <c r="O192" s="21"/>
+    </row>
+    <row r="193" ht="23" customHeight="1" spans="1:15">
+      <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="24"/>
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
-    </row>
-    <row r="194" spans="2:5">
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="26"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="20"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="21"/>
+    </row>
+    <row r="194" ht="23" customHeight="1" spans="1:15">
+      <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="24"/>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
-    </row>
-    <row r="195" spans="2:5">
+      <c r="F194" s="26"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="26"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="21"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="20"/>
+      <c r="N194" s="22"/>
+      <c r="O194" s="21"/>
+    </row>
+    <row r="195" ht="23" customHeight="1" spans="1:15">
+      <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="24"/>
       <c r="D195" s="26"/>
       <c r="E195" s="26"/>
-    </row>
-    <row r="196" spans="2:5">
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="21"/>
+      <c r="L195" s="22"/>
+      <c r="M195" s="20"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="21"/>
+    </row>
+    <row r="196" ht="23" customHeight="1" spans="1:15">
+      <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="24"/>
       <c r="D196" s="26"/>
       <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="20"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="21"/>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="19"/>
@@ -22056,11 +22064,41 @@
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:5">
       <c r="B200" s="19"/>
-    </row>
-    <row r="201" spans="2:2">
+      <c r="C200" s="24"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+    </row>
+    <row r="201" spans="2:5">
       <c r="B201" s="19"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="19"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="19"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="19"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="19"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="19"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -22070,18 +22108,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N92:N191">
+  <conditionalFormatting sqref="N97:N196">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N91">
+  <conditionalFormatting sqref="N1 N3:N96">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -22093,10 +22131,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47:C199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C16:C18 C52:C204">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47:D199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D16:D18 D52:D204">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -22108,3429 +22146,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O195"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="20.3833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.8333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.1666666666667" style="5" customWidth="1"/>
-    <col min="7" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A1" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" ht="19" customHeight="1" spans="1:15">
-      <c r="A2" s="14" t="s">
-        <v>869</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A4" s="23" t="s">
-        <v>736</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>727</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>737</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>738</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>739</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>740</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>742</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>744</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="23" t="s">
-        <v>745</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
-      <c r="A5" s="37" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E6" s="38">
-        <v>6</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>872</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" ht="34" customHeight="1" spans="1:15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E9" s="38">
-        <v>5</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E12" s="38">
-        <v>3</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="39" t="s">
-        <v>872</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="41" t="s">
-        <v>875</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>876</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>877</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>878</v>
-      </c>
-      <c r="F15" s="45">
-        <v>1</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" ht="35" customHeight="1" spans="1:15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21"/>
-    </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="21"/>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="21"/>
-    </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="21"/>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="21"/>
-    </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="21"/>
-    </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="21"/>
-    </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="21"/>
-    </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21"/>
-    </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="21"/>
-    </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="21"/>
-    </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="21"/>
-    </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="21"/>
-    </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="21"/>
-    </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="21"/>
-    </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="21"/>
-    </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="21"/>
-    </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="21"/>
-    </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="21"/>
-    </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="21"/>
-    </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="21"/>
-    </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="21"/>
-    </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="21"/>
-    </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="21"/>
-    </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="21"/>
-    </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="21"/>
-    </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="21"/>
-    </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="21"/>
-    </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="21"/>
-    </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="21"/>
-    </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="21"/>
-    </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="21"/>
-    </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="21"/>
-    </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="21"/>
-    </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="21"/>
-    </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="21"/>
-    </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="21"/>
-    </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="21"/>
-    </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="21"/>
-    </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="21"/>
-    </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="21"/>
-    </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="21"/>
-    </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="21"/>
-    </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="21"/>
-    </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="21"/>
-    </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="21"/>
-    </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="21"/>
-    </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="21"/>
-    </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="21"/>
-    </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="21"/>
-    </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="21"/>
-    </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="21"/>
-    </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="21"/>
-    </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="21"/>
-    </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="21"/>
-    </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="21"/>
-    </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="21"/>
-    </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="21"/>
-    </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="21"/>
-    </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="21"/>
-    </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="21"/>
-    </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="21"/>
-    </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="21"/>
-    </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="21"/>
-    </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="21"/>
-    </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="21"/>
-    </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="21"/>
-    </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="21"/>
-    </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="21"/>
-    </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="21"/>
-    </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="21"/>
-    </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="21"/>
-    </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="21"/>
-    </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="21"/>
-    </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="21"/>
-    </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="21"/>
-    </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="21"/>
-    </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="21"/>
-    </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="21"/>
-    </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="21"/>
-    </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="21"/>
-    </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="21"/>
-    </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="21"/>
-    </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="21"/>
-    </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="21"/>
-    </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="20"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="21"/>
-    </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="20"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="21"/>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="21"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="20"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="21"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="21"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="20"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="21"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="21"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="22"/>
-      <c r="O127" s="21"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="21"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="21"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="20"/>
-      <c r="N129" s="22"/>
-      <c r="O129" s="21"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="21"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="20"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="21"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="22"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="22"/>
-      <c r="O132" s="21"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="20"/>
-      <c r="N133" s="22"/>
-      <c r="O133" s="21"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="21"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="22"/>
-      <c r="M135" s="20"/>
-      <c r="N135" s="22"/>
-      <c r="O135" s="21"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="22"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="22"/>
-      <c r="O136" s="21"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="22"/>
-      <c r="M137" s="20"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="21"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="22"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="22"/>
-      <c r="O138" s="21"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="20"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="21"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="22"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="22"/>
-      <c r="O140" s="21"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="18"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="22"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="22"/>
-      <c r="O141" s="21"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="18"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="22"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="22"/>
-      <c r="O142" s="21"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="18"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="22"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="22"/>
-      <c r="O143" s="21"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="18"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="22"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="22"/>
-      <c r="O144" s="21"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="18"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="26"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="22"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="22"/>
-      <c r="O145" s="21"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="18"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="26"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="22"/>
-      <c r="O146" s="21"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="18"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="20"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="21"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="18"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="22"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="22"/>
-      <c r="O148" s="21"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="18"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="26"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="22"/>
-      <c r="M149" s="20"/>
-      <c r="N149" s="22"/>
-      <c r="O149" s="21"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="26"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="22"/>
-      <c r="O150" s="21"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="18"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="26"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="20"/>
-      <c r="N151" s="22"/>
-      <c r="O151" s="21"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="18"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="22"/>
-      <c r="O152" s="21"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="18"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="22"/>
-      <c r="M153" s="20"/>
-      <c r="N153" s="22"/>
-      <c r="O153" s="21"/>
-    </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="18"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="22"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="22"/>
-      <c r="O154" s="21"/>
-    </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="18"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="22"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="21"/>
-    </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="18"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="22"/>
-      <c r="O156" s="21"/>
-    </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="18"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="22"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="22"/>
-      <c r="O157" s="21"/>
-    </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="18"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="22"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="22"/>
-      <c r="O158" s="21"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="18"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="26"/>
-      <c r="I159" s="26"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="22"/>
-      <c r="M159" s="20"/>
-      <c r="N159" s="22"/>
-      <c r="O159" s="21"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="18"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="22"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="22"/>
-      <c r="O160" s="21"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="18"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="26"/>
-      <c r="G161" s="26"/>
-      <c r="H161" s="26"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="22"/>
-      <c r="M161" s="20"/>
-      <c r="N161" s="22"/>
-      <c r="O161" s="21"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="18"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
-      <c r="F162" s="26"/>
-      <c r="G162" s="26"/>
-      <c r="H162" s="26"/>
-      <c r="I162" s="26"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="22"/>
-      <c r="M162" s="20"/>
-      <c r="N162" s="22"/>
-      <c r="O162" s="21"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="18"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="21"/>
-      <c r="L163" s="22"/>
-      <c r="M163" s="20"/>
-      <c r="N163" s="22"/>
-      <c r="O163" s="21"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="18"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="22"/>
-      <c r="M164" s="20"/>
-      <c r="N164" s="22"/>
-      <c r="O164" s="21"/>
-    </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="18"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="22"/>
-      <c r="M165" s="20"/>
-      <c r="N165" s="22"/>
-      <c r="O165" s="21"/>
-    </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="18"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="22"/>
-      <c r="M166" s="20"/>
-      <c r="N166" s="22"/>
-      <c r="O166" s="21"/>
-    </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="18"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="22"/>
-      <c r="M167" s="20"/>
-      <c r="N167" s="22"/>
-      <c r="O167" s="21"/>
-    </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
-      <c r="A168" s="18"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="22"/>
-      <c r="M168" s="20"/>
-      <c r="N168" s="22"/>
-      <c r="O168" s="21"/>
-    </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="18"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="22"/>
-      <c r="M169" s="20"/>
-      <c r="N169" s="22"/>
-      <c r="O169" s="21"/>
-    </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="18"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="22"/>
-      <c r="M170" s="20"/>
-      <c r="N170" s="22"/>
-      <c r="O170" s="21"/>
-    </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="18"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="22"/>
-      <c r="M171" s="20"/>
-      <c r="N171" s="22"/>
-      <c r="O171" s="21"/>
-    </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="18"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="22"/>
-      <c r="M172" s="20"/>
-      <c r="N172" s="22"/>
-      <c r="O172" s="21"/>
-    </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="18"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="22"/>
-      <c r="M173" s="20"/>
-      <c r="N173" s="22"/>
-      <c r="O173" s="21"/>
-    </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="18"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="22"/>
-      <c r="M174" s="20"/>
-      <c r="N174" s="22"/>
-      <c r="O174" s="21"/>
-    </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="18"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="26"/>
-      <c r="I175" s="26"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="22"/>
-      <c r="M175" s="20"/>
-      <c r="N175" s="22"/>
-      <c r="O175" s="21"/>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="18"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="22"/>
-      <c r="M176" s="20"/>
-      <c r="N176" s="22"/>
-      <c r="O176" s="21"/>
-    </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="18"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="22"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="22"/>
-      <c r="O177" s="21"/>
-    </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="18"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="22"/>
-      <c r="M178" s="20"/>
-      <c r="N178" s="22"/>
-      <c r="O178" s="21"/>
-    </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="18"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="22"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="22"/>
-      <c r="O179" s="21"/>
-    </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="18"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="22"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="22"/>
-      <c r="O180" s="21"/>
-    </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="18"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="26"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="26"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="22"/>
-      <c r="M181" s="20"/>
-      <c r="N181" s="22"/>
-      <c r="O181" s="21"/>
-    </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="18"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="26"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="22"/>
-      <c r="M182" s="20"/>
-      <c r="N182" s="22"/>
-      <c r="O182" s="21"/>
-    </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="18"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="20"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="21"/>
-    </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="18"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="26"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="22"/>
-      <c r="M184" s="20"/>
-      <c r="N184" s="22"/>
-      <c r="O184" s="21"/>
-    </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="18"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="22"/>
-      <c r="M185" s="20"/>
-      <c r="N185" s="22"/>
-      <c r="O185" s="21"/>
-    </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="18"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="20"/>
-      <c r="N186" s="22"/>
-      <c r="O186" s="21"/>
-    </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="18"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="22"/>
-      <c r="M187" s="20"/>
-      <c r="N187" s="22"/>
-      <c r="O187" s="21"/>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="19"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" s="19"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-    </row>
-    <row r="190" spans="2:5">
-      <c r="B190" s="19"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191" s="19"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
-    </row>
-    <row r="192" spans="2:5">
-      <c r="B192" s="19"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
-    </row>
-    <row r="193" spans="2:5">
-      <c r="B193" s="19"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="19"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="19"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="L2:O2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="N88:N187">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N87">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C16 C17 C18:C193">
-      <formula1>target</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D16 D17 D18:D193">
-      <formula1>INDIRECT(C5)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:O208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -25583,7 +22204,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -25666,10 +22287,10 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -25693,10 +22314,10 @@
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>5</v>
@@ -25740,7 +22361,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>

--- a/TN5250/artifact/script/TN5250.xlsx
+++ b/TN5250/artifact/script/TN5250.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="873">
   <si>
     <t>target</t>
   </si>
@@ -2318,6 +2318,12 @@
   </si>
   <si>
     <t>Starting the recording</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/prudentials.jpg</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/prudentials.jpg</t>
   </si>
   <si>
     <t>Connecting the AS400 terminal emulator software.</t>
@@ -6679,10 +6685,10 @@
   <sheetPr/>
   <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6844,10 +6850,18 @@
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>752</v>
+      </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -10389,7 +10403,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -10472,10 +10486,10 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -10484,7 +10498,7 @@
         <v>444</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -10500,7 +10514,7 @@
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>29</v>
@@ -10523,7 +10537,7 @@
     <row r="7" ht="31" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>5</v>
@@ -10535,14 +10549,14 @@
         <v>2</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="K7" s="21"/>
       <c r="L7" s="36" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="22"/>
@@ -10551,7 +10565,7 @@
     <row r="8" ht="33" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>5</v>
@@ -10560,10 +10574,10 @@
         <v>174</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -10577,7 +10591,7 @@
     <row r="9" ht="31" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>29</v>
@@ -10586,7 +10600,7 @@
         <v>275</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -10600,10 +10614,10 @@
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>29</v>
@@ -10612,7 +10626,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -10627,7 +10641,7 @@
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>29</v>
@@ -10636,7 +10650,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -10651,7 +10665,7 @@
     <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>29</v>
@@ -10660,7 +10674,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -10668,7 +10682,7 @@
       <c r="I12" s="26"/>
       <c r="K12" s="21"/>
       <c r="L12" s="36" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="22"/>
@@ -10677,7 +10691,7 @@
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
@@ -10686,7 +10700,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -10708,7 +10722,7 @@
         <v>500</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -10732,7 +10746,7 @@
       <c r="I15" s="26"/>
       <c r="K15" s="21"/>
       <c r="L15" s="36" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="22"/>
@@ -13972,13 +13986,13 @@
   <sheetPr/>
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="21.1666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="39" style="3" customWidth="1"/>
@@ -14029,7 +14043,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14112,10 +14126,10 @@
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -14137,7 +14151,7 @@
     <row r="6" ht="34" customHeight="1" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>5</v>
@@ -14146,7 +14160,7 @@
         <v>541</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -14161,7 +14175,7 @@
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>29</v>
@@ -14170,7 +14184,7 @@
         <v>385</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -14178,7 +14192,7 @@
       <c r="I7" s="26"/>
       <c r="K7" s="21"/>
       <c r="L7" s="36" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="22"/>
@@ -14187,7 +14201,7 @@
     <row r="8" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>29</v>
@@ -14196,7 +14210,7 @@
         <v>275</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -14211,19 +14225,19 @@
     <row r="9" ht="26" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -14237,7 +14251,7 @@
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>5</v>
@@ -14246,10 +14260,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
@@ -14264,7 +14278,7 @@
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>29</v>
@@ -14273,7 +14287,7 @@
         <v>500</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="26"/>
@@ -14289,7 +14303,7 @@
     <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>29</v>
@@ -14298,7 +14312,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="26"/>
@@ -14314,7 +14328,7 @@
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>29</v>
@@ -14336,7 +14350,7 @@
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>5</v>
@@ -14345,7 +14359,7 @@
         <v>541</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="26"/>
@@ -14360,10 +14374,10 @@
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="18" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>29</v>
@@ -14372,7 +14386,7 @@
         <v>500</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -14388,7 +14402,7 @@
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>29</v>
@@ -14397,7 +14411,7 @@
         <v>500</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -14413,7 +14427,7 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>5</v>
@@ -14422,7 +14436,7 @@
         <v>541</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
@@ -14438,7 +14452,7 @@
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>29</v>
@@ -14447,7 +14461,7 @@
         <v>475</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -14463,7 +14477,7 @@
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>5</v>
@@ -14472,7 +14486,7 @@
         <v>541</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -14488,7 +14502,7 @@
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>29</v>
@@ -14497,7 +14511,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -14512,10 +14526,10 @@
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="18" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>5</v>
@@ -14524,16 +14538,16 @@
         <v>532</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G21" s="47">
         <v>2</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="36"/>
@@ -14546,7 +14560,7 @@
     <row r="22" ht="33" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>5</v>
@@ -14555,10 +14569,10 @@
         <v>471</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="26"/>
@@ -14573,7 +14587,7 @@
     <row r="23" ht="33" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>30</v>
@@ -14582,7 +14596,7 @@
         <v>629</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -14597,7 +14611,7 @@
     </row>
     <row r="24" ht="23" customHeight="1" spans="2:15">
       <c r="B24" s="19" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>30</v>
@@ -14606,7 +14620,7 @@
         <v>672</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -14620,7 +14634,7 @@
     </row>
     <row r="25" ht="23" customHeight="1" spans="2:15">
       <c r="B25" s="19" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>30</v>
@@ -14641,7 +14655,7 @@
     </row>
     <row r="26" ht="23" customHeight="1" spans="2:15">
       <c r="B26" s="19" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>29</v>
@@ -14650,7 +14664,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -14664,7 +14678,7 @@
     </row>
     <row r="27" ht="23" customHeight="1" spans="2:15">
       <c r="B27" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>29</v>
@@ -14688,7 +14702,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="49"/>
       <c r="B28" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>29</v>
@@ -14697,7 +14711,7 @@
         <v>500</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="26"/>
@@ -14711,10 +14725,10 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>29</v>
@@ -14723,7 +14737,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -14737,7 +14751,7 @@
     </row>
     <row r="30" ht="23" customHeight="1" spans="2:15">
       <c r="B30" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>29</v>
@@ -14746,7 +14760,7 @@
         <v>500</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -14760,7 +14774,7 @@
     </row>
     <row r="31" ht="23" customHeight="1" spans="2:15">
       <c r="B31" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>5</v>
@@ -14769,7 +14783,7 @@
         <v>541</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -14783,7 +14797,7 @@
     </row>
     <row r="32" ht="23" customHeight="1" spans="2:15">
       <c r="B32" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>29</v>
@@ -14792,7 +14806,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -14806,7 +14820,7 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:15">
       <c r="B33" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>29</v>
@@ -14827,7 +14841,7 @@
     </row>
     <row r="34" ht="23" customHeight="1" spans="2:15">
       <c r="B34" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>29</v>
@@ -14850,7 +14864,7 @@
     </row>
     <row r="35" ht="23" customHeight="1" spans="2:15">
       <c r="B35" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>29</v>
@@ -14859,7 +14873,7 @@
         <v>500</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -14873,7 +14887,7 @@
     </row>
     <row r="36" ht="23" customHeight="1" spans="2:15">
       <c r="B36" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>29</v>
@@ -14882,7 +14896,7 @@
         <v>500</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -14896,7 +14910,7 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="2:15">
       <c r="B37" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
@@ -14905,7 +14919,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -14919,7 +14933,7 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="2:15">
       <c r="B38" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>5</v>
@@ -14928,7 +14942,7 @@
         <v>541</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -14942,7 +14956,7 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="2:15">
       <c r="B39" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>29</v>
@@ -14951,7 +14965,7 @@
         <v>500</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -14965,10 +14979,10 @@
     </row>
     <row r="40" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="18" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
@@ -14977,7 +14991,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -14992,7 +15006,7 @@
     <row r="41" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>29</v>
@@ -15001,7 +15015,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -15015,7 +15029,7 @@
     <row r="42" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>5</v>
@@ -15024,7 +15038,7 @@
         <v>541</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -15038,7 +15052,7 @@
     <row r="43" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>29</v>
@@ -15047,7 +15061,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -15062,7 +15076,7 @@
     <row r="44" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>29</v>
@@ -15071,7 +15085,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -15086,7 +15100,7 @@
     <row r="45" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
@@ -15095,7 +15109,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -15110,7 +15124,7 @@
     <row r="46" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>5</v>
@@ -15119,7 +15133,7 @@
         <v>541</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -15133,10 +15147,10 @@
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>29</v>
@@ -15145,7 +15159,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -15160,7 +15174,7 @@
     <row r="48" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
@@ -15169,7 +15183,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -15184,7 +15198,7 @@
     <row r="49" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>29</v>
@@ -15205,7 +15219,7 @@
     <row r="50" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>29</v>
@@ -15214,7 +15228,7 @@
         <v>500</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -15230,7 +15244,7 @@
     <row r="51" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>29</v>
@@ -15239,7 +15253,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -15255,7 +15269,7 @@
     <row r="52" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>5</v>
@@ -15264,7 +15278,7 @@
         <v>541</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -15280,7 +15294,7 @@
     <row r="53" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>29</v>
@@ -15289,7 +15303,7 @@
         <v>500</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -15305,7 +15319,7 @@
     <row r="54" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>29</v>
@@ -15314,7 +15328,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -15330,7 +15344,7 @@
     <row r="55" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>29</v>
@@ -15339,7 +15353,7 @@
         <v>500</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -15355,7 +15369,7 @@
     <row r="56" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>29</v>
@@ -15364,7 +15378,7 @@
         <v>500</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -18255,7 +18269,7 @@
   <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="E55" numberStoredAsText="1"/>
-    <ignoredError sqref="B53:B54 B45" listDataValidation="1"/>
+    <ignoredError sqref="B45 B53:B54" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -18322,7 +18336,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -18405,10 +18419,10 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="37" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -18428,7 +18442,7 @@
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="37"/>
       <c r="B6" s="38" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>29</v>
@@ -18452,7 +18466,7 @@
     <row r="7" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="37"/>
       <c r="B7" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>29</v>
@@ -18461,7 +18475,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="26"/>
@@ -18476,7 +18490,7 @@
     <row r="8" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>29</v>
@@ -18499,7 +18513,7 @@
     <row r="9" ht="34" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>29</v>
@@ -18508,7 +18522,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -18524,7 +18538,7 @@
     <row r="10" ht="34" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>29</v>
@@ -18533,7 +18547,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -18549,7 +18563,7 @@
     <row r="11" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>29</v>
@@ -18572,7 +18586,7 @@
     <row r="12" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>29</v>
@@ -18597,7 +18611,7 @@
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>29</v>
@@ -18606,7 +18620,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -18622,7 +18636,7 @@
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>29</v>
@@ -18638,7 +18652,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="22"/>
@@ -18646,10 +18660,10 @@
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="18" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>29</v>
@@ -18658,7 +18672,7 @@
         <v>475</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -18674,7 +18688,7 @@
     <row r="16" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="42" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>5</v>
@@ -18683,10 +18697,10 @@
         <v>471</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -18701,7 +18715,7 @@
     <row r="17" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="42" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>5</v>
@@ -18710,10 +18724,10 @@
         <v>471</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -18728,7 +18742,7 @@
     <row r="18" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="42" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>5</v>
@@ -18737,10 +18751,10 @@
         <v>471</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -18755,7 +18769,7 @@
     <row r="19" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="42" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>5</v>
@@ -18764,10 +18778,10 @@
         <v>471</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -18782,7 +18796,7 @@
     <row r="20" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>29</v>
@@ -18791,7 +18805,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="26"/>
@@ -18806,10 +18820,10 @@
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="18" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>29</v>
@@ -18832,7 +18846,7 @@
     <row r="22" ht="35" customHeight="1" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>29</v>
@@ -18857,7 +18871,7 @@
     <row r="23" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>29</v>
@@ -18866,7 +18880,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -18882,7 +18896,7 @@
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>29</v>
@@ -18891,7 +18905,7 @@
         <v>500</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
@@ -18907,7 +18921,7 @@
     <row r="25" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>29</v>
@@ -18916,7 +18930,7 @@
         <v>500</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -18932,7 +18946,7 @@
     <row r="26" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>29</v>
@@ -18941,7 +18955,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -18957,7 +18971,7 @@
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>29</v>
@@ -18966,7 +18980,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -18982,7 +18996,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="19" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>29</v>
@@ -18991,7 +19005,7 @@
         <v>500</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -19007,7 +19021,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>29</v>
@@ -19016,7 +19030,7 @@
         <v>500</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -19032,7 +19046,7 @@
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>29</v>
@@ -19041,7 +19055,7 @@
         <v>500</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -19057,7 +19071,7 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>29</v>
@@ -19066,7 +19080,7 @@
         <v>500</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -19075,7 +19089,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="22"/>
@@ -19084,7 +19098,7 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>29</v>
@@ -19093,7 +19107,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -19108,10 +19122,10 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="18" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>29</v>
@@ -19134,7 +19148,7 @@
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>29</v>
@@ -19159,7 +19173,7 @@
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>29</v>
@@ -19168,7 +19182,7 @@
         <v>500</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -19184,7 +19198,7 @@
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>29</v>
@@ -19193,7 +19207,7 @@
         <v>500</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -19209,7 +19223,7 @@
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>29</v>
@@ -19218,7 +19232,7 @@
         <v>500</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -19234,7 +19248,7 @@
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>29</v>
@@ -19243,7 +19257,7 @@
         <v>500</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -19259,7 +19273,7 @@
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>29</v>
@@ -19268,7 +19282,7 @@
         <v>500</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -19284,7 +19298,7 @@
     <row r="40" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>29</v>
@@ -19293,7 +19307,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -19309,7 +19323,7 @@
     <row r="41" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>29</v>
@@ -19318,7 +19332,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -19334,7 +19348,7 @@
     <row r="42" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>29</v>
@@ -19343,7 +19357,7 @@
         <v>500</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -19359,7 +19373,7 @@
     <row r="43" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>29</v>
@@ -19368,7 +19382,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -19377,7 +19391,7 @@
       <c r="J43" s="36"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="22"/>
@@ -19386,7 +19400,7 @@
     <row r="44" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>29</v>
@@ -19395,7 +19409,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -19410,10 +19424,10 @@
     </row>
     <row r="45" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="18" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>29</v>
@@ -19436,7 +19450,7 @@
     <row r="46" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>29</v>
@@ -19461,7 +19475,7 @@
     <row r="47" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="38" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>29</v>
@@ -19470,7 +19484,7 @@
         <v>500</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -19486,7 +19500,7 @@
     <row r="48" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>29</v>
@@ -19495,7 +19509,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -19511,7 +19525,7 @@
     <row r="49" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>29</v>
@@ -19520,7 +19534,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -19529,7 +19543,7 @@
       <c r="J49" s="36"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="22"/>
@@ -19545,7 +19559,7 @@
         <v>500</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -19568,7 +19582,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -22204,7 +22218,7 @@
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -22287,10 +22301,10 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>29</v>
@@ -22299,7 +22313,7 @@
         <v>409</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -22314,10 +22328,10 @@
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="18" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>5</v>
@@ -22361,7 +22375,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
@@ -22380,7 +22394,7 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
